--- a/theory/Analogy_Summary.xlsx
+++ b/theory/Analogy_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/durst/dev/W17-8/haskellAetherling/Aetherling/theory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803A78C5-06DB-5947-8278-83B2578A49C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C68CB196-1374-954D-9B20-20BA3CB64F9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{933F85C3-48B3-054D-81F6-0C4ED5F01C29}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{933F85C3-48B3-054D-81F6-0C4ED5F01C29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Sequence Language</t>
   </si>
@@ -140,13 +140,16 @@
   <si>
     <t>1. Scheduling - assigning clock cycles to operations
 2. Binding - determiing which adders, multipliers, and other gates to create to match schedule timing</t>
+  </si>
+  <si>
+    <t>Analogies Between Aetherling's Properties And Other Systems</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,6 +161,15 @@
       <b/>
       <u/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -184,13 +196,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,14 +521,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA85491-0D0D-794B-A808-00EAADA459E5}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="25.83203125" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
@@ -521,145 +537,157 @@
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="136" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>